--- a/tdcrpy/validation/Validation_w_analytical_model.xlsx
+++ b/tdcrpy/validation/Validation_w_analytical_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D216FA-F481-462C-987A-0081CB6F3B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4356EC3-9290-49F8-BC5E-3FE871519E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="57">
   <si>
     <t>The Stochastic implementation of TDCRPy is tested with its analystical implementation in the cases of pure beta emitting radionuclides</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>dev T</t>
-  </si>
-  <si>
-    <t>Model Analytic</t>
   </si>
   <si>
     <t>u_r</t>
@@ -182,6 +179,45 @@
   <si>
     <t>Target relatif standard uncertainty &lt;=</t>
   </si>
+  <si>
+    <t>TDCR17 restults</t>
+  </si>
+  <si>
+    <t>Analytical model results</t>
+  </si>
+  <si>
+    <t>TDCRPy</t>
+  </si>
+  <si>
+    <t>deviation</t>
+  </si>
+  <si>
+    <t>eff</t>
+  </si>
+  <si>
+    <t>LS Cocktail</t>
+  </si>
+  <si>
+    <t>Ultima Gold</t>
+  </si>
+  <si>
+    <t>lower integration bound</t>
+  </si>
+  <si>
+    <t>64.6 eV</t>
+  </si>
+  <si>
+    <t>Deviation = TDCRPy/TDCR17-1</t>
+  </si>
+  <si>
+    <t>eff_T/eff_D</t>
+  </si>
+  <si>
+    <t>Comparison of TDCRPy (analytical calculation) with the LNHB code TDCR17</t>
+  </si>
+  <si>
+    <t>TDCR</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +227,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +274,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +338,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -394,12 +444,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -427,14 +508,463 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="154">
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -765,6 +1295,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -49015,15 +49548,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>260985</xdr:colOff>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>565785</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49134,15 +49667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>260985</xdr:colOff>
+      <xdr:colOff>421005</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>565785</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49251,15 +49784,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>260985</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>565785</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:colOff>558165</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49367,14 +49900,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>260985</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>565785</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49487,13 +50020,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>260985</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>565785</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49604,15 +50137,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>260985</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>565785</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49641,16 +50174,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>577215</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>318135</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:colOff>272415</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49723,15 +50256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>260985</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>565785</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:colOff>558165</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49843,14 +50376,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>260985</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>565785</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -49962,14 +50495,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>260985</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>565785</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -50159,12 +50692,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{ADFC4064-5D07-43E7-8DD0-87B0B80C3F39}" name="Table7" displayName="Table7" ref="A8:E19" totalsRowShown="0">
   <autoFilter ref="A8:E19" xr:uid="{ADFC4064-5D07-43E7-8DD0-87B0B80C3F39}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E19">
+    <sortCondition ref="B8:B19"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{576A4050-0440-4112-834B-899ECFBB7521}" name="Radionuclide"/>
     <tableColumn id="2" xr3:uid="{5A681DB3-04E2-48E3-B519-DE6458702404}" name="Ebeta max /keV"/>
     <tableColumn id="3" xr3:uid="{5D9BBB86-67C4-4C69-88BE-6A9E29839703}" name="nE"/>
     <tableColumn id="4" xr3:uid="{037B7EA4-21B1-46A5-A47E-7D6AC0B37CC1}" name="a"/>
-    <tableColumn id="6" xr3:uid="{75DDBDA1-4ECA-4498-B803-E60F418F258D}" name="N" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{75DDBDA1-4ECA-4498-B803-E60F418F258D}" name="N" dataDxfId="153">
       <calculatedColumnFormula>C$28/(Table7[[#This Row],[Ebeta max /keV]]*D$6*D$6)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50173,12 +50709,106 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{78878017-A066-45A0-B283-ADB186531ECA}" name="Table210" displayName="Table210" ref="A39:J54" totalsRowShown="0">
+  <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{51BF03BC-7102-4787-822D-624891E5B96C}" name="N"/>
+    <tableColumn id="2" xr3:uid="{794663A0-0CF5-40F6-9BB9-1ADD9FBC1CC5}" name="eff_S" dataDxfId="128" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{7EAF2261-FBFC-4F3F-B144-CF596665F9DD}" name="u(eff_S)" dataDxfId="127" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{200C80E9-1C1E-4696-8E96-E226995B65B8}" name="eff_D" dataDxfId="126" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{E0A4E6D7-B3A3-4587-8607-3572E13134D5}" name="u(eff_D)" dataDxfId="125" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{DB239991-1E67-4665-A7D8-4B8436093149}" name="eff_T" dataDxfId="124" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{246BD0E8-BBF1-4BE7-995E-DEA98A039B68}" name="u(eff_T)" dataDxfId="123" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{C26F406B-A5F7-4CC3-9D9D-538711957605}" name="dev S" dataDxfId="122" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table210[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{46D1DA27-5FC2-4E35-B819-A4CB58B110DB}" name="dev D" dataDxfId="121" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table210[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{34A8DE5D-F74D-492A-A274-0B0C859471FB}" name="dev T" dataDxfId="120" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table210[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00DFC535-448A-49A6-B36F-FA39EF9D4B46}" name="Table24" displayName="Table24" ref="N38:Q42" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="38">
+  <autoFilter ref="N38:Q42" xr:uid="{00DFC535-448A-49A6-B36F-FA39EF9D4B46}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{48691EE7-385D-41D9-A431-3224EDC22619}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{A485D795-B68F-48FB-87E6-90F260406E07}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{685A910D-3063-4AD2-AE30-AE1CE66B7D7E}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{03B750DA-8F04-4CAF-8945-A4CCC33307C5}" name="deviation" dataDxfId="9" dataCellStyle="Percent">
+      <calculatedColumnFormula>O39/P39-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9408A51E-E2E4-450F-95D1-A89D89050834}" name="Table1911" displayName="Table1911" ref="A9:C29" totalsRowShown="0">
+  <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{563E9143-C40D-491C-8CDE-CDD733BA0224}" name="nE"/>
+    <tableColumn id="2" xr3:uid="{D38D562E-4FD9-4C76-861F-73AAAD5BF9FB}" name="eff_D" dataDxfId="119" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{67A872D7-029C-4EF4-BA97-2F316E6BE26C}" name="Err" dataDxfId="118" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1911[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DB5779BD-DFBD-4796-9B07-0BC9384527A0}" name="Table21012" displayName="Table21012" ref="A39:J54" totalsRowShown="0">
+  <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{A9014AD2-899B-4058-A4A3-29606A72E965}" name="N"/>
+    <tableColumn id="2" xr3:uid="{14A8557E-096B-4047-8C5E-82CF741D7DA0}" name="eff_S" dataDxfId="117" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{E4F99B18-5058-4866-B452-11B5BA93448C}" name="u(eff_S)" dataDxfId="116" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{972C84D8-6145-45BB-9CB8-09DDDEF6F749}" name="eff_D" dataDxfId="115" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{74656AB6-739B-4B84-BBE1-28612DF52EB3}" name="u(eff_D)" dataDxfId="114" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{299AC151-A7A5-4A26-AF35-1E14B8D2C089}" name="eff_T" dataDxfId="113" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{A85EC1DF-19B6-4FD3-BCF8-3947658FC8C1}" name="u(eff_T)" dataDxfId="112" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{EE585CDD-9FD5-4F72-A395-021C91063976}" name="dev S" dataDxfId="111" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table21012[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2AD29AB6-6602-40AA-8DBD-358273252597}" name="dev D" dataDxfId="110" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table21012[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{643C2947-320A-4EFB-9526-ED74A61FC3A6}" name="dev T" dataDxfId="109" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table21012[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{B4B8DE9C-7929-47A0-9305-9713F0232905}" name="Table26" displayName="Table26" ref="N38:Q42" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="35">
+  <autoFilter ref="N38:Q42" xr:uid="{B4B8DE9C-7929-47A0-9305-9713F0232905}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B8FD4597-F95B-4C04-8473-71AB350A1702}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{D18F8D06-ECD7-4A68-AE5A-D12DC8DCCAE9}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{85C380F3-CDEF-4D29-A43A-6C93B832B92E}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{5E7F6760-8BDA-4D13-AD35-ECCDCEB3DD63}" name="deviation" dataDxfId="32" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table26[[#This Row],[TDCR17 restults]]/Table26[[#This Row],[TDCRPy]]-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{40ECB449-2B36-4547-AB6F-3CED41CF11E2}" name="Table191119" displayName="Table191119" ref="A9:C29" totalsRowShown="0">
   <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B143C88F-A93D-4EB2-8D28-82F4FCF3E381}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{B8BE980F-F5C4-464D-985E-B505BDEB9BD6}" name="eff_D" dataDxfId="66" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{0F1E3A50-733C-46E2-AED5-F2645BC79937}" name="Err" dataDxfId="65" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{B8BE980F-F5C4-464D-985E-B505BDEB9BD6}" name="eff_D" dataDxfId="108" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{0F1E3A50-733C-46E2-AED5-F2645BC79937}" name="Err" dataDxfId="107" dataCellStyle="Percent">
       <calculatedColumnFormula>Table191119[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50186,24 +50816,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6351A3C3-2AF1-48CB-8674-DC81E73578E0}" name="Table2101220" displayName="Table2101220" ref="A39:J54" totalsRowShown="0">
   <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{DA121FD9-6089-478D-B5A4-CE6B019AE49D}" name="N"/>
-    <tableColumn id="2" xr3:uid="{EAAF0919-D90A-4B82-98EB-13BF809A715D}" name="eff_S" dataDxfId="64" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{6B443066-C445-4FA8-A17C-C2649D54C420}" name="u(eff_S)" dataDxfId="63" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{B643CA3F-0C2B-4D5D-B312-7D228159BA2F}" name="eff_D" dataDxfId="62" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{6F4AE6F9-6D7C-46F0-ACFF-D79EEA8AE8C1}" name="u(eff_D)" dataDxfId="61" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{774CD7D3-1F50-48F0-8E86-1DB0E6387975}" name="eff_T" dataDxfId="60" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D20565D3-95E5-463D-9EFE-BAB66A17D0E3}" name="u(eff_T)" dataDxfId="59" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{973EA219-1E2B-4A05-88A1-5EF9B79E18DD}" name="dev S" dataDxfId="58" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{EAAF0919-D90A-4B82-98EB-13BF809A715D}" name="eff_S" dataDxfId="106" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{6B443066-C445-4FA8-A17C-C2649D54C420}" name="u(eff_S)" dataDxfId="105" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B643CA3F-0C2B-4D5D-B312-7D228159BA2F}" name="eff_D" dataDxfId="104" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{6F4AE6F9-6D7C-46F0-ACFF-D79EEA8AE8C1}" name="u(eff_D)" dataDxfId="103" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{774CD7D3-1F50-48F0-8E86-1DB0E6387975}" name="eff_T" dataDxfId="102" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D20565D3-95E5-463D-9EFE-BAB66A17D0E3}" name="u(eff_T)" dataDxfId="101" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{973EA219-1E2B-4A05-88A1-5EF9B79E18DD}" name="dev S" dataDxfId="100" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2101220[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2914B281-679C-4B8B-A0CE-E4AF4261BDD1}" name="dev D" dataDxfId="57" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{2914B281-679C-4B8B-A0CE-E4AF4261BDD1}" name="dev D" dataDxfId="99" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2101220[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F262EDEA-07FA-4554-B2F0-BD82E6504571}" name="dev T" dataDxfId="56" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{F262EDEA-07FA-4554-B2F0-BD82E6504571}" name="dev T" dataDxfId="98" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2101220[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50211,13 +50841,28 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{ADC4D008-C521-43A2-A86C-1F55A5ADFD53}" name="Table28" displayName="Table28" ref="N38:Q42" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="31">
+  <autoFilter ref="N38:Q42" xr:uid="{ADC4D008-C521-43A2-A86C-1F55A5ADFD53}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BD600A03-5A45-4B16-B6CB-77535FE228C8}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{AAD9108B-238C-4644-8885-D99E3F90FA3F}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{E16ADA3E-6A70-4B4B-9525-5EED454A822F}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{81B315CE-BD79-4634-9BC4-79EC0CEC81C4}" name="deviation" dataDxfId="8">
+      <calculatedColumnFormula>O39/P39-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AACA5512-68E3-4583-9578-C12024AC86FE}" name="Table16" displayName="Table16" ref="A9:C29" totalsRowShown="0">
   <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{640F30B3-C89F-45FD-8947-28DE002E04FA}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{3E199B85-D47E-4926-9B64-228ABE0A9696}" name="eff_D" dataDxfId="55" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{B96D3C0E-B75F-4BB0-B4FF-539313569DA5}" name="Err" dataDxfId="54" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{3E199B85-D47E-4926-9B64-228ABE0A9696}" name="eff_D" dataDxfId="97" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{B96D3C0E-B75F-4BB0-B4FF-539313569DA5}" name="Err" dataDxfId="96" dataCellStyle="Percent">
       <calculatedColumnFormula>Table16[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50225,24 +50870,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F42274AF-A8A0-4677-8238-0B08519CB6B4}" name="Table27" displayName="Table27" ref="A39:J54" totalsRowShown="0">
   <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{923F9991-C22A-4E5A-835E-50A6D1DB66F4}" name="N"/>
-    <tableColumn id="2" xr3:uid="{ECDFD2EA-5F64-4A45-B848-FA303535DF60}" name="eff_S" dataDxfId="53" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{7A58F1CC-4036-4C54-B0B4-6CFA2B4E713C}" name="u(eff_S)" dataDxfId="52" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{F9098845-64C7-4591-9890-5082AD84069B}" name="eff_D" dataDxfId="51" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{D0ED4C0E-D408-4D65-B213-738ED446C5E1}" name="u(eff_D)" dataDxfId="50" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{CB11F5EF-22C0-42E3-A140-4E7B886AF7D5}" name="eff_T" dataDxfId="49" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{1E3009BE-9C3D-41B6-B8C6-858F6EDB4B75}" name="u(eff_T)" dataDxfId="48" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{71DF4C73-3362-4A14-93AF-35153585A0A7}" name="dev S" dataDxfId="47" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{ECDFD2EA-5F64-4A45-B848-FA303535DF60}" name="eff_S" dataDxfId="95" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{7A58F1CC-4036-4C54-B0B4-6CFA2B4E713C}" name="u(eff_S)" dataDxfId="94" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{F9098845-64C7-4591-9890-5082AD84069B}" name="eff_D" dataDxfId="93" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{D0ED4C0E-D408-4D65-B213-738ED446C5E1}" name="u(eff_D)" dataDxfId="92" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{CB11F5EF-22C0-42E3-A140-4E7B886AF7D5}" name="eff_T" dataDxfId="91" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{1E3009BE-9C3D-41B6-B8C6-858F6EDB4B75}" name="u(eff_T)" dataDxfId="90" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{71DF4C73-3362-4A14-93AF-35153585A0A7}" name="dev S" dataDxfId="89" dataCellStyle="Percent">
       <calculatedColumnFormula>Table27[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{45AFD4CC-048D-462E-8DE3-EE23ECF3BA9D}" name="dev D" dataDxfId="46" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{45AFD4CC-048D-462E-8DE3-EE23ECF3BA9D}" name="dev D" dataDxfId="88" dataCellStyle="Percent">
       <calculatedColumnFormula>Table27[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{56982AD0-DF4A-4D5E-A11C-3907AE30A875}" name="dev T" dataDxfId="45" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{56982AD0-DF4A-4D5E-A11C-3907AE30A875}" name="dev T" dataDxfId="87" dataCellStyle="Percent">
       <calculatedColumnFormula>Table27[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50250,13 +50895,44 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{C0B77FD5-3202-4E5D-83C4-CB6BBCEAECC8}" name="Table34" displayName="Table34" ref="A45:E55" totalsRowShown="0" tableBorderDxfId="12">
+  <autoFilter ref="A45:E55" xr:uid="{C0B77FD5-3202-4E5D-83C4-CB6BBCEAECC8}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{312CAB8E-D047-4438-B55D-910ADAA5620A}" name="Radionuclide" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FEAEC597-C5D4-4919-B7D4-949CAC088118}" name="Ebeta max /keV" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{7A5FA811-8C0A-4B29-8E2A-160E2AEA07EA}" name="eff_D" dataDxfId="2" dataCellStyle="Percent">
+      <calculatedColumnFormula>'Pu-241'!Q39</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{72D7ED92-977A-4A0F-8549-9D47373DA8FD}" name="eff_T" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{5462D5CE-AB81-476E-A334-639062005AA6}" name="eff_T/eff_D" dataDxfId="0" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F8B4DF0C-AE48-4F68-AFC5-5E996C1B7615}" name="Table29" displayName="Table29" ref="N38:Q42" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="28">
+  <autoFilter ref="N38:Q42" xr:uid="{F8B4DF0C-AE48-4F68-AFC5-5E996C1B7615}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4B9F0086-02F4-43FA-AF8C-6F09768D6EB9}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{B3C42272-4B84-4E8D-97D9-13BEB431DDB3}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{8DA2005E-E604-49EB-A631-653BE35B88AD}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{15FF0FAB-0611-4451-9130-53407974AAF2}" name="deviation" dataDxfId="7">
+      <calculatedColumnFormula>O39/P39-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{25FECB0F-1ECA-4C23-A303-4D374237F15B}" name="Table1613" displayName="Table1613" ref="A9:C29" totalsRowShown="0">
   <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{93754908-AA3F-43B7-9C98-DCC1004308FC}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{2B2BEC11-52C0-4FF9-A254-E502AB61C524}" name="eff_D" dataDxfId="44" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{F52CC5E8-BC97-41B8-BCF4-C85166C2B207}" name="Err" dataDxfId="43" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{2B2BEC11-52C0-4FF9-A254-E502AB61C524}" name="eff_D" dataDxfId="86" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{F52CC5E8-BC97-41B8-BCF4-C85166C2B207}" name="Err" dataDxfId="85" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1613[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50264,24 +50940,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0CBA2E47-BC18-4732-AC90-210A177FDA90}" name="Table2714" displayName="Table2714" ref="A39:J54" totalsRowShown="0">
   <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{65C6E0C9-CB11-4607-911B-4EF613CE5D03}" name="N"/>
-    <tableColumn id="2" xr3:uid="{9E9A0C63-A8FE-423E-BC53-AEE3B65B06C1}" name="eff_S" dataDxfId="42" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{C593E7CC-C6BC-4240-9C7C-FDA3B2199D64}" name="u(eff_S)" dataDxfId="41" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{213E72E4-4E8C-4AB1-9564-22B00DDCFF71}" name="eff_D" dataDxfId="40" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{9A8EF978-C0F4-42C9-B8F2-66CC2154A9E0}" name="u(eff_D)" dataDxfId="39" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{E1957223-DF5C-414A-95A8-8E0DF6D709E8}" name="eff_T" dataDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D4DDD34C-591F-49BC-A9C6-4AC3EE4CEA8B}" name="u(eff_T)" dataDxfId="37" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{6C2DB00A-193B-4E88-A6AE-03B15EC750B4}" name="dev S" dataDxfId="36" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{9E9A0C63-A8FE-423E-BC53-AEE3B65B06C1}" name="eff_S" dataDxfId="84" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{C593E7CC-C6BC-4240-9C7C-FDA3B2199D64}" name="u(eff_S)" dataDxfId="83" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{213E72E4-4E8C-4AB1-9564-22B00DDCFF71}" name="eff_D" dataDxfId="82" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{9A8EF978-C0F4-42C9-B8F2-66CC2154A9E0}" name="u(eff_D)" dataDxfId="81" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{E1957223-DF5C-414A-95A8-8E0DF6D709E8}" name="eff_T" dataDxfId="80" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D4DDD34C-591F-49BC-A9C6-4AC3EE4CEA8B}" name="u(eff_T)" dataDxfId="79" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{6C2DB00A-193B-4E88-A6AE-03B15EC750B4}" name="dev S" dataDxfId="78" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2714[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0BDB36EB-455D-4396-9CF1-0CE8F531FE33}" name="dev D" dataDxfId="35" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{0BDB36EB-455D-4396-9CF1-0CE8F531FE33}" name="dev D" dataDxfId="77" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2714[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2CBEE8E3-AF0E-4148-897E-54EAD6AD2DC5}" name="dev T" dataDxfId="34" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{2CBEE8E3-AF0E-4148-897E-54EAD6AD2DC5}" name="dev T" dataDxfId="76" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2714[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50289,13 +50965,28 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{E88D97E1-D96A-430A-B8DD-0598B528C3A3}" name="Table30" displayName="Table30" ref="N38:Q42" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="25">
+  <autoFilter ref="N38:Q42" xr:uid="{E88D97E1-D96A-430A-B8DD-0598B528C3A3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9D55DF6D-0557-4481-9AC8-CCBDA6887019}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{52F9D9CA-6B98-4130-93BE-61E2E3570A71}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{7BF1FFB4-2A99-4F02-9E35-35B22EF3D96C}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{1EA67CDC-B094-4255-9A54-B193A5428087}" name="deviation" dataDxfId="22" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table30[[#This Row],[TDCR17 restults]]/Table30[[#This Row],[TDCRPy]]-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B4E40404-E437-4A0C-9977-DF75E3DC297C}" name="Table161317" displayName="Table161317" ref="A9:C29" totalsRowShown="0">
   <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{65E3D7F6-1459-4E4C-9125-0938071A7234}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{BC5EB6B8-734B-48B5-89D7-F3BEB7A0E262}" name="eff_D" dataDxfId="33" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{9D7326F5-EB11-45FD-992D-8E7A7A7844A8}" name="Err" dataDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{BC5EB6B8-734B-48B5-89D7-F3BEB7A0E262}" name="eff_D" dataDxfId="75" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{9D7326F5-EB11-45FD-992D-8E7A7A7844A8}" name="Err" dataDxfId="74" dataCellStyle="Percent">
       <calculatedColumnFormula>Table161317[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50303,24 +50994,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{73DA4B9B-B51D-4FA5-BB4C-4DE2A263E807}" name="Table271418" displayName="Table271418" ref="A39:J54" totalsRowShown="0">
   <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{08702903-5C2C-41F9-939A-4898CA2A6406}" name="N"/>
-    <tableColumn id="2" xr3:uid="{A54E11BA-516F-43EA-A95B-BA8CBA8AF592}" name="eff_S" dataDxfId="31" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{4C33399C-B17F-4011-ACD0-354A35B276EF}" name="u(eff_S)" dataDxfId="30" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{497DD481-06F1-4308-9EF2-315339FEF30E}" name="eff_D" dataDxfId="29" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{E2F594EB-E158-4DB9-BF61-424C70FB66B3}" name="u(eff_D)" dataDxfId="28" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{12D0DE45-FD83-4650-9712-517D72F18AFC}" name="eff_T" dataDxfId="27" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{65DAB206-3193-4AAE-8F49-C88E484193D9}" name="u(eff_T)" dataDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{413A0BA3-B598-472C-906A-94AC3CC50F95}" name="dev S" dataDxfId="25" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{A54E11BA-516F-43EA-A95B-BA8CBA8AF592}" name="eff_S" dataDxfId="73" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{4C33399C-B17F-4011-ACD0-354A35B276EF}" name="u(eff_S)" dataDxfId="72" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{497DD481-06F1-4308-9EF2-315339FEF30E}" name="eff_D" dataDxfId="71" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{E2F594EB-E158-4DB9-BF61-424C70FB66B3}" name="u(eff_D)" dataDxfId="70" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{12D0DE45-FD83-4650-9712-517D72F18AFC}" name="eff_T" dataDxfId="69" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{65DAB206-3193-4AAE-8F49-C88E484193D9}" name="u(eff_T)" dataDxfId="68" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{413A0BA3-B598-472C-906A-94AC3CC50F95}" name="dev S" dataDxfId="67" dataCellStyle="Percent">
       <calculatedColumnFormula>Table271418[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{7AE92807-9AB1-43D3-96BB-C45786544FAD}" name="dev D" dataDxfId="24" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{7AE92807-9AB1-43D3-96BB-C45786544FAD}" name="dev D" dataDxfId="66" dataCellStyle="Percent">
       <calculatedColumnFormula>Table271418[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0CB8F788-1506-47A7-A0D5-0F286873D009}" name="dev T" dataDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{0CB8F788-1506-47A7-A0D5-0F286873D009}" name="dev T" dataDxfId="65" dataCellStyle="Percent">
       <calculatedColumnFormula>Table271418[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50328,13 +51019,28 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{408CC8CB-B154-4F2C-9E8E-338F54340690}" name="Table31" displayName="Table31" ref="N38:Q42" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="21">
+  <autoFilter ref="N38:Q42" xr:uid="{408CC8CB-B154-4F2C-9E8E-338F54340690}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{34C07CB4-E097-4B9F-AC81-23B4B23871CD}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{59F10E5B-399B-4743-B962-12E91E6C5904}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{5C524BB4-E73D-464A-B338-C2C8A24E945D}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{63B1DD31-804F-440D-A464-5899EA6CAA45}" name="deviation" dataDxfId="6">
+      <calculatedColumnFormula>O39/P39-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A55E24EC-8B40-4DE0-87D3-4B5B9E9D5C54}" name="Table14" displayName="Table14" ref="A9:C29" totalsRowShown="0">
   <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2C61CE2C-CC86-440E-99B7-95775458C89A}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{7BE0ED99-EE50-402D-8CB6-3A9DE5B5BC35}" name="eff_D" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{9E21D37A-34BA-4145-9E35-5348CF0C4423}" name="Err" dataDxfId="21" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{7BE0ED99-EE50-402D-8CB6-3A9DE5B5BC35}" name="eff_D" dataDxfId="64" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{9E21D37A-34BA-4145-9E35-5348CF0C4423}" name="Err" dataDxfId="63" dataCellStyle="Percent">
       <calculatedColumnFormula>Table14[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50342,24 +51048,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{367CBED4-D20B-4357-B0F3-01353C8D4A99}" name="Table25" displayName="Table25" ref="A39:J54" totalsRowShown="0">
   <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0B8B7787-2C90-4E8D-9EDA-79C544739217}" name="N"/>
-    <tableColumn id="2" xr3:uid="{9049DE05-8AA7-43B8-B4D5-5D15FBD1E12B}" name="eff_S" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{8F8F5D93-E9BD-4F75-8026-71D7CBCAC3ED}" name="u(eff_S)" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{D725644B-54B0-496B-AF48-F2E0610A9014}" name="eff_D" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{DFA7B8CD-8D6C-48F5-8718-BD20CDFC8B6D}" name="u(eff_D)" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{76553A55-E668-4843-B86C-321E5B79770F}" name="eff_T" dataDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{DAAF60AC-36CF-450F-B144-34D1BCE8DE85}" name="u(eff_T)" dataDxfId="15" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{5E3D5F01-DF7D-4B85-8E66-94FDD3C450DC}" name="dev S" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{9049DE05-8AA7-43B8-B4D5-5D15FBD1E12B}" name="eff_S" dataDxfId="62" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{8F8F5D93-E9BD-4F75-8026-71D7CBCAC3ED}" name="u(eff_S)" dataDxfId="61" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{D725644B-54B0-496B-AF48-F2E0610A9014}" name="eff_D" dataDxfId="60" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{DFA7B8CD-8D6C-48F5-8718-BD20CDFC8B6D}" name="u(eff_D)" dataDxfId="59" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{76553A55-E668-4843-B86C-321E5B79770F}" name="eff_T" dataDxfId="58" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{DAAF60AC-36CF-450F-B144-34D1BCE8DE85}" name="u(eff_T)" dataDxfId="57" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{5E3D5F01-DF7D-4B85-8E66-94FDD3C450DC}" name="dev S" dataDxfId="56" dataCellStyle="Percent">
       <calculatedColumnFormula>Table25[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E4851D60-2011-4C92-BBA1-51225C2EDB9E}" name="dev D" dataDxfId="13" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{E4851D60-2011-4C92-BBA1-51225C2EDB9E}" name="dev D" dataDxfId="55" dataCellStyle="Percent">
       <calculatedColumnFormula>Table25[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{708AF7BA-B84C-4B4C-BD9B-3375044BD72F}" name="dev T" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{708AF7BA-B84C-4B4C-BD9B-3375044BD72F}" name="dev T" dataDxfId="54" dataCellStyle="Percent">
       <calculatedColumnFormula>Table25[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50367,13 +51073,28 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{0794CE9C-13A6-4193-B8CD-CDF36E714CCA}" name="Table32" displayName="Table32" ref="N38:Q42" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="N38:Q42" xr:uid="{0794CE9C-13A6-4193-B8CD-CDF36E714CCA}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B1749A83-7A79-4A82-B2B5-490F0B30A6C9}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{7239BF34-EC2B-4DAE-A966-B8A55AF25EF6}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{B1F94FEA-3A68-42C5-8C03-ABBB75F94C73}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{FB7CF972-5B63-4DD9-98C7-01FA7ECA856D}" name="deviation" dataDxfId="5">
+      <calculatedColumnFormula>O39/P39-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}" name="Table1" displayName="Table1" ref="A9:C29" totalsRowShown="0">
   <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{117FD82F-F3B4-4F2F-95D7-04708AC55781}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{A1FB8066-C9F8-4F72-A52D-EDEAF77E5865}" name="eff_D" dataDxfId="110" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{D676226C-2B9D-463A-9153-E6F7FEE7693E}" name="Err" dataDxfId="109" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{A1FB8066-C9F8-4F72-A52D-EDEAF77E5865}" name="eff_D" dataDxfId="152" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{D676226C-2B9D-463A-9153-E6F7FEE7693E}" name="Err" dataDxfId="151" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50381,13 +51102,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A300D524-543B-4037-A6CE-BBF9C9FCA517}" name="Table161315" displayName="Table161315" ref="A9:C29" totalsRowShown="0">
   <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AD413286-7341-43EC-9E6E-E63312A60F86}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{EED7158E-0FA5-44C3-AC55-39BF5C88CACA}" name="eff_D" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{F7884069-B78C-4955-87ED-36656EC67AA4}" name="Err" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{EED7158E-0FA5-44C3-AC55-39BF5C88CACA}" name="eff_D" dataDxfId="53" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{F7884069-B78C-4955-87ED-36656EC67AA4}" name="Err" dataDxfId="52" dataCellStyle="Percent">
       <calculatedColumnFormula>Table161315[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50395,24 +51116,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{36FDD37B-6E99-4963-BC9D-B7A29AB8250C}" name="Table271416" displayName="Table271416" ref="A39:J54" totalsRowShown="0">
   <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C0A91274-BB44-4513-B150-896B01B1E40F}" name="N"/>
-    <tableColumn id="2" xr3:uid="{B2B9D408-8FDB-4287-94EA-A3D72589A64B}" name="eff_S" dataDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{AAB46C82-9DDF-4032-A109-F81EABB71FD1}" name="u(eff_S)" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{A2CF73D3-676B-42C8-8659-6C46DF5664B6}" name="eff_D" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{413975AC-5E4E-4F57-9F2C-E5509694B62B}" name="u(eff_D)" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{9A8116EC-92BB-4099-ABAA-84274E9D931E}" name="eff_T" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{44E2FCEF-2E0A-40CE-942B-B03F5185C090}" name="u(eff_T)" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{163A6FA3-683B-4FE8-BA4D-8968D35C3E01}" name="dev S" dataDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{B2B9D408-8FDB-4287-94EA-A3D72589A64B}" name="eff_S" dataDxfId="51" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{AAB46C82-9DDF-4032-A109-F81EABB71FD1}" name="u(eff_S)" dataDxfId="50" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{A2CF73D3-676B-42C8-8659-6C46DF5664B6}" name="eff_D" dataDxfId="49" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{413975AC-5E4E-4F57-9F2C-E5509694B62B}" name="u(eff_D)" dataDxfId="48" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{9A8116EC-92BB-4099-ABAA-84274E9D931E}" name="eff_T" dataDxfId="47" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{44E2FCEF-2E0A-40CE-942B-B03F5185C090}" name="u(eff_T)" dataDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{163A6FA3-683B-4FE8-BA4D-8968D35C3E01}" name="dev S" dataDxfId="45" dataCellStyle="Percent">
       <calculatedColumnFormula>Table271416[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EF8B03B2-6611-4C0C-8F34-642F07897E9F}" name="dev D" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{EF8B03B2-6611-4C0C-8F34-642F07897E9F}" name="dev D" dataDxfId="44" dataCellStyle="Percent">
       <calculatedColumnFormula>Table271416[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1782229D-37C3-4248-B6C3-3E98963C5BCC}" name="dev T" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{1782229D-37C3-4248-B6C3-3E98963C5BCC}" name="dev T" dataDxfId="43" dataCellStyle="Percent">
       <calculatedColumnFormula>Table271416[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50420,24 +51141,39 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{061D939A-B9A9-4964-814E-C81E015DB8DA}" name="Table33" displayName="Table33" ref="N38:Q42" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="N38:Q42" xr:uid="{061D939A-B9A9-4964-814E-C81E015DB8DA}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C833AFD6-E50B-4648-AB4A-0F3F6292768A}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{D60DD809-CC0C-4400-B1B2-BF016E87D4D5}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{E4A13DD1-F647-49AA-9960-03C8A0B276C2}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{2A9B0527-3952-40BA-B4CC-D082969190CC}" name="deviation" dataDxfId="4">
+      <calculatedColumnFormula>O39/P39-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}" name="Table2" displayName="Table2" ref="A39:J54" totalsRowShown="0">
   <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{759A2DB1-E19A-470F-8CF8-523E63F6489E}" name="N"/>
-    <tableColumn id="2" xr3:uid="{0917AB3B-FDF7-40D3-8A34-8D3BFEEB6236}" name="eff_S" dataDxfId="108" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{B4258BAD-7525-40C1-B705-4539D800037C}" name="u(eff_S)" dataDxfId="107" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{B42621D3-329C-4EBC-B58F-592F8F47128A}" name="eff_D" dataDxfId="106" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{B475A649-0E1C-4F85-9344-4A726DE2581C}" name="u(eff_D)" dataDxfId="105" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{C3197FF5-09F9-4AF3-90A6-EA8772066853}" name="eff_T" dataDxfId="104" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{A88072F2-375E-4CB0-803F-5C105665F6FC}" name="u(eff_T)" dataDxfId="103" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{78D8E14E-B63D-4174-914A-BC9B8727F0B4}" name="dev S" dataDxfId="102" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{0917AB3B-FDF7-40D3-8A34-8D3BFEEB6236}" name="eff_S" dataDxfId="150" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{B4258BAD-7525-40C1-B705-4539D800037C}" name="u(eff_S)" dataDxfId="149" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{B42621D3-329C-4EBC-B58F-592F8F47128A}" name="eff_D" dataDxfId="148" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{B475A649-0E1C-4F85-9344-4A726DE2581C}" name="u(eff_D)" dataDxfId="147" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{C3197FF5-09F9-4AF3-90A6-EA8772066853}" name="eff_T" dataDxfId="146" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{A88072F2-375E-4CB0-803F-5C105665F6FC}" name="u(eff_T)" dataDxfId="145" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{78D8E14E-B63D-4174-914A-BC9B8727F0B4}" name="dev S" dataDxfId="144" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{42069BB6-F993-4F7C-A05B-C3B50F591A24}" name="dev D" dataDxfId="101" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{42069BB6-F993-4F7C-A05B-C3B50F591A24}" name="dev D" dataDxfId="143" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4AED0225-16F2-4D48-AF21-803328847EF4}" name="dev T" dataDxfId="100" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{4AED0225-16F2-4D48-AF21-803328847EF4}" name="dev T" dataDxfId="142" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50445,13 +51181,26 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{4A4109B1-ADDF-43A4-85C6-0330CCD53E8F}" name="Table22" displayName="Table22" ref="N38:Q42" totalsRowShown="0">
+  <autoFilter ref="N38:Q42" xr:uid="{4A4109B1-ADDF-43A4-85C6-0330CCD53E8F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1484344D-B8F3-49BA-A2D1-0E86E7450B2F}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{C853A823-DEC2-47CC-AF8B-F15C5E1A5A9E}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{F4DB0F43-35F3-42E3-B529-4429E5D0E032}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{0CC4F4DC-B6A1-43F5-B780-34BD984F26B8}" name="deviation" dataDxfId="42" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{DAF94674-C94D-4604-B6C1-50412263EF1F}" name="Table1921" displayName="Table1921" ref="A9:C29" totalsRowShown="0">
   <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{06F78662-CA2A-432D-B3C1-2F3FFED57E1A}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{DCA739C6-0359-4F81-9E4E-E9CCB6A38B4E}" name="eff_D" dataDxfId="99" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{32982A30-1D65-49A3-9DE5-4B99AE05F2F6}" name="Err" dataDxfId="98" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{DCA739C6-0359-4F81-9E4E-E9CCB6A38B4E}" name="eff_D" dataDxfId="141" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{32982A30-1D65-49A3-9DE5-4B99AE05F2F6}" name="Err" dataDxfId="140" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1921[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50459,24 +51208,24 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{81CD0589-DABA-48FA-9084-BB14CD8D2288}" name="Table21022" displayName="Table21022" ref="A39:J54" totalsRowShown="0">
   <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{FA1A8BD1-9CB2-4E12-B4D9-2F162B7F1387}" name="N"/>
-    <tableColumn id="2" xr3:uid="{3372F409-922E-405D-A4E6-71152319F8FB}" name="eff_S" dataDxfId="97" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{BF757C5C-99BD-41FB-94DE-7065E828D98C}" name="u(eff_S)" dataDxfId="96" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{9D1C4C34-A38C-4A36-A9F4-C4CD14AA0185}" name="eff_D" dataDxfId="95" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{30ED3A6D-DBF1-4096-9F9C-D9AFB857697F}" name="u(eff_D)" dataDxfId="94" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{D123B4E6-22DD-4DCD-BEBE-E86948DAF352}" name="eff_T" dataDxfId="93" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{13ECB8E2-9D91-4C4F-9510-98D276B89670}" name="u(eff_T)" dataDxfId="92" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{5D78A236-AA8D-4104-9060-B2DBC7682B4F}" name="dev S" dataDxfId="91" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{3372F409-922E-405D-A4E6-71152319F8FB}" name="eff_S" dataDxfId="139" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{BF757C5C-99BD-41FB-94DE-7065E828D98C}" name="u(eff_S)" dataDxfId="138" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{9D1C4C34-A38C-4A36-A9F4-C4CD14AA0185}" name="eff_D" dataDxfId="137" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{30ED3A6D-DBF1-4096-9F9C-D9AFB857697F}" name="u(eff_D)" dataDxfId="136" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{D123B4E6-22DD-4DCD-BEBE-E86948DAF352}" name="eff_T" dataDxfId="135" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{13ECB8E2-9D91-4C4F-9510-98D276B89670}" name="u(eff_T)" dataDxfId="134" dataCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{5D78A236-AA8D-4104-9060-B2DBC7682B4F}" name="dev S" dataDxfId="133" dataCellStyle="Percent">
       <calculatedColumnFormula>Table21022[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2230743F-76E5-473E-A513-CBF07138BA4C}" name="dev D" dataDxfId="90" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{2230743F-76E5-473E-A513-CBF07138BA4C}" name="dev D" dataDxfId="132" dataCellStyle="Percent">
       <calculatedColumnFormula>Table21022[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5B61D63E-06B4-4B85-A566-AEB52FBD6DA3}" name="dev T" dataDxfId="89" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5B61D63E-06B4-4B85-A566-AEB52FBD6DA3}" name="dev T" dataDxfId="131" dataCellStyle="Percent">
       <calculatedColumnFormula>Table21022[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50484,53 +51233,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4B603001-C5B0-4C12-AB51-2ECE4C6C6CF0}" name="Table19" displayName="Table19" ref="A9:C29" totalsRowShown="0">
-  <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C70D18D3-AAF7-45EF-B524-6FA736D304F4}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{B1D98615-2139-4F09-B526-F555CB77D899}" name="eff_D" dataDxfId="88" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{90114868-F18E-4499-BB24-98B0E5684C49}" name="Err" dataDxfId="87" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table19[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{78878017-A066-45A0-B283-ADB186531ECA}" name="Table210" displayName="Table210" ref="A39:J54" totalsRowShown="0">
-  <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{51BF03BC-7102-4787-822D-624891E5B96C}" name="N"/>
-    <tableColumn id="2" xr3:uid="{794663A0-0CF5-40F6-9BB9-1ADD9FBC1CC5}" name="eff_S" dataDxfId="86" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{7EAF2261-FBFC-4F3F-B144-CF596665F9DD}" name="u(eff_S)" dataDxfId="85" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{200C80E9-1C1E-4696-8E96-E226995B65B8}" name="eff_D" dataDxfId="84" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{E0A4E6D7-B3A3-4587-8607-3572E13134D5}" name="u(eff_D)" dataDxfId="83" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{DB239991-1E67-4665-A7D8-4B8436093149}" name="eff_T" dataDxfId="82" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{246BD0E8-BBF1-4BE7-995E-DEA98A039B68}" name="u(eff_T)" dataDxfId="81" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{C26F406B-A5F7-4CC3-9D9D-538711957605}" name="dev S" dataDxfId="80" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table210[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{46D1DA27-5FC2-4E35-B819-A4CB58B110DB}" name="dev D" dataDxfId="79" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table210[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{34A8DE5D-F74D-492A-A274-0B0C859471FB}" name="dev T" dataDxfId="78" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table210[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9408A51E-E2E4-450F-95D1-A89D89050834}" name="Table1911" displayName="Table1911" ref="A9:C29" totalsRowShown="0">
-  <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{563E9143-C40D-491C-8CDE-CDD733BA0224}" name="nE"/>
-    <tableColumn id="2" xr3:uid="{D38D562E-4FD9-4C76-861F-73AAAD5BF9FB}" name="eff_D" dataDxfId="77" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{67A872D7-029C-4EF4-BA97-2F316E6BE26C}" name="Err" dataDxfId="76" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1911[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{D4CC260C-E469-41B9-A4CC-CB4DC8BF2F27}" name="Table23" displayName="Table23" ref="N38:Q42" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="41">
+  <autoFilter ref="N38:Q42" xr:uid="{D4CC260C-E469-41B9-A4CC-CB4DC8BF2F27}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E8163F1C-13C5-400D-AE77-717644D0D74F}" name="eff"/>
+    <tableColumn id="2" xr3:uid="{B7B856B0-2894-44E5-B491-7D51D35C4BF5}" name="TDCRPy"/>
+    <tableColumn id="3" xr3:uid="{E234671D-B257-4A73-BB03-4E18C8FA024E}" name="TDCR17 restults"/>
+    <tableColumn id="4" xr3:uid="{D1E64DF4-F78F-4D88-A048-3FCA5526533C}" name="deviation" dataDxfId="10" dataCellStyle="Percent">
+      <calculatedColumnFormula>O39/P39-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -50538,24 +51249,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DB5779BD-DFBD-4796-9B07-0BC9384527A0}" name="Table21012" displayName="Table21012" ref="A39:J54" totalsRowShown="0">
-  <autoFilter ref="A39:J54" xr:uid="{79374241-2754-472B-83B1-AA7C7BA7F07F}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A9014AD2-899B-4058-A4A3-29606A72E965}" name="N"/>
-    <tableColumn id="2" xr3:uid="{14A8557E-096B-4047-8C5E-82CF741D7DA0}" name="eff_S" dataDxfId="75" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{E4F99B18-5058-4866-B452-11B5BA93448C}" name="u(eff_S)" dataDxfId="74" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{972C84D8-6145-45BB-9CB8-09DDDEF6F749}" name="eff_D" dataDxfId="73" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{74656AB6-739B-4B84-BBE1-28612DF52EB3}" name="u(eff_D)" dataDxfId="72" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{299AC151-A7A5-4A26-AF35-1E14B8D2C089}" name="eff_T" dataDxfId="71" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{A85EC1DF-19B6-4FD3-BCF8-3947658FC8C1}" name="u(eff_T)" dataDxfId="70" dataCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{EE585CDD-9FD5-4F72-A395-021C91063976}" name="dev S" dataDxfId="69" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table21012[[#This Row],[eff_S]]/O$39-1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{2AD29AB6-6602-40AA-8DBD-358273252597}" name="dev D" dataDxfId="68" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table21012[[#This Row],[eff_D]]/O$40-1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{643C2947-320A-4EFB-9526-ED74A61FC3A6}" name="dev T" dataDxfId="67" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table21012[[#This Row],[eff_T]]/O$41-1</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4B603001-C5B0-4C12-AB51-2ECE4C6C6CF0}" name="Table19" displayName="Table19" ref="A9:C29" totalsRowShown="0">
+  <autoFilter ref="A9:C29" xr:uid="{51806141-2207-4491-9DDB-E62889288E1A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C70D18D3-AAF7-45EF-B524-6FA736D304F4}" name="nE"/>
+    <tableColumn id="2" xr3:uid="{B1D98615-2139-4F09-B526-F555CB77D899}" name="eff_D" dataDxfId="130" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{90114868-F18E-4499-BB24-98B0E5684C49}" name="Err" dataDxfId="129" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table19[[#This Row],[eff_D]]/B$31-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -50825,27 +51525,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD5CE37-D3FF-4959-B6DE-2C7F2C1CEF5B}">
-  <dimension ref="A4:E28"/>
+  <dimension ref="A4:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -50855,16 +51555,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -50872,7 +51572,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>18.591000000000001</v>
@@ -50890,7 +51590,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>20.8</v>
@@ -50908,7 +51608,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>66.98</v>
@@ -50926,7 +51626,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>156.476</v>
@@ -50944,7 +51644,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>167.33</v>
@@ -50962,7 +51662,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>224.1</v>
@@ -50980,7 +51680,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>258</v>
@@ -50998,7 +51698,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>293.8</v>
@@ -51016,7 +51716,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>545.9</v>
@@ -51034,7 +51734,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>1495.1</v>
@@ -51058,30 +51758,30 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>1.33</v>
@@ -51091,1182 +51791,222 @@
         <v>1.7689000000000001</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06397ADA-DF11-4F30-81C4-082B1BC10C52}">
-  <dimension ref="A3:Z63"/>
-  <sheetViews>
-    <sheetView topLeftCell="E51" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:G52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="28">
+        <v>18.591000000000001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-3.3999999999999998E-3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="29">
+        <v>20.8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="28">
+        <v>66.98</v>
+      </c>
+      <c r="C48" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>1</v>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="29">
+        <v>156.476</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-3.3E-3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="9">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="28">
+        <v>167.33</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-1.9E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="29">
+        <v>224.1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-8.6999999999999994E-3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="28">
+        <v>258</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="29">
+        <v>293.8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="28">
         <v>545.9</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>24</v>
+      <c r="C54" s="1">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.992067809389786</v>
-      </c>
-      <c r="C10" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>5.7794351848552417E-3</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.99084510740500598</v>
-      </c>
-      <c r="C11" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>4.539833919687819E-3</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.99005434718251795</v>
-      </c>
-      <c r="C12" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>3.738144395632137E-3</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.98948856940792695</v>
-      </c>
-      <c r="C13" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>3.1645468600782767E-3</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.98907510033277801</v>
-      </c>
-      <c r="C14" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>2.7453631218965491E-3</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.98828365971203003</v>
-      </c>
-      <c r="C15" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>1.9429837956206342E-3</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.98730202804689005</v>
-      </c>
-      <c r="C16" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>9.4778474533452339E-4</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.98669836519595999</v>
-      </c>
-      <c r="C17" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>3.3577851400257153E-4</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>80</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.98655996835826998</v>
-      </c>
-      <c r="C18" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>1.9546885782206758E-4</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>100</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.98651771537643695</v>
-      </c>
-      <c r="C19" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>1.5263188659830895E-4</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>200</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.98643979758555</v>
-      </c>
-      <c r="C20" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>7.3637173769736108E-5</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>500</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.98639386157277897</v>
-      </c>
-      <c r="C21" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>2.7066267484610051E-5</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1000</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.98637875103428996</v>
-      </c>
-      <c r="C22" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>1.1746882334850994E-5</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2000</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.98637166627669004</v>
-      </c>
-      <c r="C23" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>4.564204467705224E-6</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>5000</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.98636785476137101</v>
-      </c>
-      <c r="C24" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>7.0000920948665168E-7</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>7000</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.98636716429527205</v>
-      </c>
-      <c r="C25" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>10000</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>-1</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>20000</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>-1</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>50000</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>-1</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>70000</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3">
-        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
-        <v>-1</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.98636716429527205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="N38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" t="s">
-        <v>10</v>
-      </c>
-      <c r="O39">
-        <v>0.98486712004140697</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40">
-        <v>0.99999963955336302</v>
-      </c>
-      <c r="C40" s="24">
-        <v>3.4190873202320503E-7</v>
-      </c>
-      <c r="D40">
-        <v>0.99999999999610301</v>
-      </c>
-      <c r="E40" s="24">
-        <v>3.69684678803042E-12</v>
-      </c>
-      <c r="F40">
-        <v>0.99999891866398805</v>
-      </c>
-      <c r="G40" s="24">
-        <v>1.0257224992357199E-6</v>
-      </c>
-      <c r="H40" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>1.5365036768939744E-2</v>
-      </c>
-      <c r="I40" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>1.3746609214007277E-2</v>
-      </c>
-      <c r="J40" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>2.5388115528287125E-2</v>
-      </c>
-      <c r="K40" s="8"/>
-      <c r="N40" t="s">
-        <v>3</v>
-      </c>
-      <c r="O40">
-        <v>0.98643979758555</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>20</v>
-      </c>
-      <c r="B41">
-        <v>0.99999697958623301</v>
-      </c>
-      <c r="C41" s="24">
-        <v>2.9331542099950201E-6</v>
-      </c>
-      <c r="D41">
-        <v>0.99999999945644902</v>
-      </c>
-      <c r="E41" s="24">
-        <v>5.2978067662144297E-10</v>
-      </c>
-      <c r="F41">
-        <v>0.99999093930226102</v>
-      </c>
-      <c r="G41" s="24">
-        <v>8.7989328418867094E-6</v>
-      </c>
-      <c r="H41" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>1.5362335930343418E-2</v>
-      </c>
-      <c r="I41" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>1.374660866693489E-2</v>
-      </c>
-      <c r="J41" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>2.5379933576755276E-2</v>
-      </c>
-      <c r="K41" s="8"/>
-      <c r="N41" t="s">
-        <v>13</v>
-      </c>
-      <c r="O41">
-        <v>0.975239427413084</v>
-      </c>
-      <c r="U41">
-        <v>0.99999963955336302</v>
-      </c>
-      <c r="V41" s="24">
-        <v>3.4190873202320503E-7</v>
-      </c>
-      <c r="W41">
-        <v>0.99999999999610301</v>
-      </c>
-      <c r="X41" s="24">
-        <v>3.69684678803042E-12</v>
-      </c>
-      <c r="Y41">
-        <v>0.99999891866398805</v>
-      </c>
-      <c r="Z41" s="24">
-        <v>1.0257224992357199E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>50</v>
-      </c>
-      <c r="B42">
-        <v>0.99290300551591304</v>
-      </c>
-      <c r="C42">
-        <v>4.2034392513131801E-3</v>
-      </c>
-      <c r="D42">
-        <v>0.99748259631004199</v>
-      </c>
-      <c r="E42">
-        <v>1.7773828400849E-3</v>
-      </c>
-      <c r="F42">
-        <v>0.98136843700424203</v>
-      </c>
-      <c r="G42">
-        <v>1.0794515870854299E-2</v>
-      </c>
-      <c r="H42" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>8.1593600913067998E-3</v>
-      </c>
-      <c r="I42" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>1.1194599763230118E-2</v>
-      </c>
-      <c r="J42" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>6.2846203905186915E-3</v>
-      </c>
-      <c r="K42" s="8"/>
-      <c r="U42">
-        <v>0.99999697958623301</v>
-      </c>
-      <c r="V42" s="24">
-        <v>2.9331542099950201E-6</v>
-      </c>
-      <c r="W42">
-        <v>0.99999999945644902</v>
-      </c>
-      <c r="X42" s="24">
-        <v>5.2978067662144297E-10</v>
-      </c>
-      <c r="Y42">
-        <v>0.99999093930226102</v>
-      </c>
-      <c r="Z42" s="24">
-        <v>8.7989328418867094E-6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>100</v>
-      </c>
-      <c r="B43">
-        <v>0.98456473832439495</v>
-      </c>
-      <c r="C43">
-        <v>1.0054546258506099E-2</v>
-      </c>
-      <c r="D43">
-        <v>0.98506699712427703</v>
-      </c>
-      <c r="E43">
-        <v>1.06530351560527E-2</v>
-      </c>
-      <c r="F43">
-        <v>0.97668217243520405</v>
-      </c>
-      <c r="G43">
-        <v>1.34945111445351E-2</v>
-      </c>
-      <c r="H43" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-3.0702793387937799E-4</v>
-      </c>
-      <c r="I43" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>-1.3916718127483518E-3</v>
-      </c>
-      <c r="J43" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>1.4793751991211135E-3</v>
-      </c>
-      <c r="K43" s="7"/>
-      <c r="U43">
-        <v>0.99290300551591304</v>
-      </c>
-      <c r="V43">
-        <v>4.2034392513131801E-3</v>
-      </c>
-      <c r="W43">
-        <v>0.99748259631004199</v>
-      </c>
-      <c r="X43">
-        <v>1.7773828400849E-3</v>
-      </c>
-      <c r="Y43">
-        <v>0.98136843700424203</v>
-      </c>
-      <c r="Z43">
-        <v>1.0794515870854299E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>200</v>
-      </c>
-      <c r="B44">
-        <v>0.98598139447607802</v>
-      </c>
-      <c r="C44">
-        <v>7.2245901699370301E-3</v>
-      </c>
-      <c r="D44">
-        <v>0.98839760620314199</v>
-      </c>
-      <c r="E44">
-        <v>7.1103870198594302E-3</v>
-      </c>
-      <c r="F44">
-        <v>0.97969857321498099</v>
-      </c>
-      <c r="G44">
-        <v>8.1032847481732097E-3</v>
-      </c>
-      <c r="H44" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>1.1313957101382055E-3</v>
-      </c>
-      <c r="I44" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>1.9847218475814721E-3</v>
-      </c>
-      <c r="J44" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>4.5723600549305576E-3</v>
-      </c>
-      <c r="K44" s="6"/>
-      <c r="U44">
-        <v>0.98456473832439495</v>
-      </c>
-      <c r="V44">
-        <v>1.0054546258506099E-2</v>
-      </c>
-      <c r="W44">
-        <v>0.98506699712427703</v>
-      </c>
-      <c r="X44">
-        <v>1.06530351560527E-2</v>
-      </c>
-      <c r="Y44">
-        <v>0.97668217243520405</v>
-      </c>
-      <c r="Z44">
-        <v>1.34945111445351E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>500</v>
-      </c>
-      <c r="B45">
-        <v>0.979525122513901</v>
-      </c>
-      <c r="C45">
-        <v>5.3245769435702603E-3</v>
-      </c>
-      <c r="D45">
-        <v>0.98132287735910695</v>
-      </c>
-      <c r="E45">
-        <v>5.48089967423956E-3</v>
-      </c>
-      <c r="F45">
-        <v>0.96980609949525598</v>
-      </c>
-      <c r="G45">
-        <v>6.5990572075470197E-3</v>
-      </c>
-      <c r="H45" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-5.4240794710268547E-3</v>
-      </c>
-      <c r="I45" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>-5.1872605291953811E-3</v>
-      </c>
-      <c r="J45" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>-5.5712758991302014E-3</v>
-      </c>
-      <c r="K45" s="6"/>
-      <c r="U45">
-        <v>0.98598139447607802</v>
-      </c>
-      <c r="V45">
-        <v>7.2245901699370301E-3</v>
-      </c>
-      <c r="W45">
-        <v>0.98839760620314199</v>
-      </c>
-      <c r="X45">
-        <v>7.1103870198594302E-3</v>
-      </c>
-      <c r="Y45">
-        <v>0.97969857321498099</v>
-      </c>
-      <c r="Z45">
-        <v>8.1032847481732097E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1000</v>
-      </c>
-      <c r="B46">
-        <v>0.98474102382963702</v>
-      </c>
-      <c r="C46">
-        <v>2.9256833557122501E-3</v>
-      </c>
-      <c r="D46">
-        <v>0.98679595314961299</v>
-      </c>
-      <c r="E46">
-        <v>2.9166588705717999E-3</v>
-      </c>
-      <c r="F46">
-        <v>0.974013784091593</v>
-      </c>
-      <c r="G46">
-        <v>4.2346845600233496E-3</v>
-      </c>
-      <c r="H46" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-1.2803373084957492E-4</v>
-      </c>
-      <c r="I46" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>3.6105149542287052E-4</v>
-      </c>
-      <c r="J46" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>-1.256761454714872E-3</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="U46">
-        <v>0.979525122513901</v>
-      </c>
-      <c r="V46">
-        <v>5.3245769435702603E-3</v>
-      </c>
-      <c r="W46">
-        <v>0.98132287735910695</v>
-      </c>
-      <c r="X46">
-        <v>5.48089967423956E-3</v>
-      </c>
-      <c r="Y46">
-        <v>0.96980609949525598</v>
-      </c>
-      <c r="Z46">
-        <v>6.5990572075470197E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2000</v>
-      </c>
-      <c r="B47">
-        <v>0.98714504046967499</v>
-      </c>
-      <c r="C47">
-        <v>1.9928185167878698E-3</v>
-      </c>
-      <c r="D47">
-        <v>0.98902317027286002</v>
-      </c>
-      <c r="E47">
-        <v>1.97780901778318E-3</v>
-      </c>
-      <c r="F47">
-        <v>0.97908538817194402</v>
-      </c>
-      <c r="G47">
-        <v>2.6766795347760901E-3</v>
-      </c>
-      <c r="H47" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>2.3129215930899338E-3</v>
-      </c>
-      <c r="I47" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>2.6188853021067438E-3</v>
-      </c>
-      <c r="J47" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>3.9436067192870627E-3</v>
-      </c>
-      <c r="K47" s="5"/>
-      <c r="U47">
-        <v>0.98474102382963702</v>
-      </c>
-      <c r="V47">
-        <v>2.9256833557122501E-3</v>
-      </c>
-      <c r="W47">
-        <v>0.98679595314961299</v>
-      </c>
-      <c r="X47">
-        <v>2.9166588705717999E-3</v>
-      </c>
-      <c r="Y47">
-        <v>0.974013784091593</v>
-      </c>
-      <c r="Z47">
-        <v>4.2346845600233496E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>5000</v>
-      </c>
-      <c r="B48">
-        <v>0.98239043682791904</v>
-      </c>
-      <c r="C48">
-        <v>1.4530326366836801E-3</v>
-      </c>
-      <c r="D48">
-        <v>0.984117291675491</v>
-      </c>
-      <c r="E48">
-        <v>1.4968264740995399E-3</v>
-      </c>
-      <c r="F48">
-        <v>0.97141258854318802</v>
-      </c>
-      <c r="G48">
-        <v>2.01750911763247E-3</v>
-      </c>
-      <c r="H48" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-2.5147384485572077E-3</v>
-      </c>
-      <c r="I48" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>-2.3544324912110337E-3</v>
-      </c>
-      <c r="J48" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>-3.9239993403948903E-3</v>
-      </c>
-      <c r="K48" s="5"/>
-      <c r="U48">
-        <v>0.98714504046967499</v>
-      </c>
-      <c r="V48">
-        <v>1.9928185167878698E-3</v>
-      </c>
-      <c r="W48">
-        <v>0.98902317027286002</v>
-      </c>
-      <c r="X48">
-        <v>1.97780901778318E-3</v>
-      </c>
-      <c r="Y48">
-        <v>0.97908538817194402</v>
-      </c>
-      <c r="Z48">
-        <v>2.6766795347760901E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>10000</v>
-      </c>
-      <c r="B49">
-        <v>0.98245484223848301</v>
-      </c>
-      <c r="C49">
-        <v>1.04243510976491E-3</v>
-      </c>
-      <c r="D49">
-        <v>0.98412211240621805</v>
-      </c>
-      <c r="E49">
-        <v>1.0764908953973199E-3</v>
-      </c>
-      <c r="F49">
-        <v>0.97206528372471501</v>
-      </c>
-      <c r="G49">
-        <v>1.41119817055974E-3</v>
-      </c>
-      <c r="H49" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-2.4493434229203581E-3</v>
-      </c>
-      <c r="I49" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>-2.3495454917824565E-3</v>
-      </c>
-      <c r="J49" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>-3.2547327344923938E-3</v>
-      </c>
-      <c r="K49" s="4"/>
-      <c r="U49">
-        <v>0.98239043682791904</v>
-      </c>
-      <c r="V49">
-        <v>1.4530326366836801E-3</v>
-      </c>
-      <c r="W49">
-        <v>0.984117291675491</v>
-      </c>
-      <c r="X49">
-        <v>1.4968264740995399E-3</v>
-      </c>
-      <c r="Y49">
-        <v>0.97141258854318802</v>
-      </c>
-      <c r="Z49">
-        <v>2.01750911763247E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>20000</v>
-      </c>
-      <c r="B50">
-        <v>0.98302092978236799</v>
-      </c>
-      <c r="C50">
-        <v>7.20442087544264E-4</v>
-      </c>
-      <c r="D50">
-        <v>0.98458605157259405</v>
-      </c>
-      <c r="E50">
-        <v>7.4089560162783901E-4</v>
-      </c>
-      <c r="F50">
-        <v>0.97277330084414604</v>
-      </c>
-      <c r="G50">
-        <v>9.9029567282665092E-4</v>
-      </c>
-      <c r="H50" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-1.8745577159295923E-3</v>
-      </c>
-      <c r="I50" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>-1.8792287349853609E-3</v>
-      </c>
-      <c r="J50" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>-2.5287396095947656E-3</v>
-      </c>
-      <c r="K50" s="4"/>
-      <c r="U50">
-        <v>0.98245484223848301</v>
-      </c>
-      <c r="V50">
-        <v>1.04243510976491E-3</v>
-      </c>
-      <c r="W50">
-        <v>0.98412211240621805</v>
-      </c>
-      <c r="X50">
-        <v>1.0764908953973199E-3</v>
-      </c>
-      <c r="Y50">
-        <v>0.97206528372471501</v>
-      </c>
-      <c r="Z50">
-        <v>1.41119817055974E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50000</v>
-      </c>
-      <c r="B51">
-        <v>0.98380818511221102</v>
-      </c>
-      <c r="C51">
-        <v>4.4164074574145999E-4</v>
-      </c>
-      <c r="D51">
-        <v>0.98544111445299798</v>
-      </c>
-      <c r="E51">
-        <v>4.5283331234080598E-4</v>
-      </c>
-      <c r="F51">
-        <v>0.97372575153660501</v>
-      </c>
-      <c r="G51">
-        <v>6.1186513557147295E-4</v>
-      </c>
-      <c r="H51" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-1.0752058908732876E-3</v>
-      </c>
-      <c r="I51" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>-1.0124116393077642E-3</v>
-      </c>
-      <c r="J51" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>-1.5521069328525705E-3</v>
-      </c>
-      <c r="K51" s="4"/>
-      <c r="U51">
-        <v>0.98302092978236799</v>
-      </c>
-      <c r="V51">
-        <v>7.20442087544264E-4</v>
-      </c>
-      <c r="W51">
-        <v>0.98458605157259405</v>
-      </c>
-      <c r="X51">
-        <v>7.4089560162783901E-4</v>
-      </c>
-      <c r="Y51">
-        <v>0.97277330084414604</v>
-      </c>
-      <c r="Z51">
-        <v>9.9029567282665092E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>100000</v>
-      </c>
-      <c r="B52">
-        <v>0.98436253664413598</v>
-      </c>
-      <c r="C52">
-        <v>3.0504496385145099E-4</v>
-      </c>
-      <c r="D52">
-        <v>0.98601784607074305</v>
-      </c>
-      <c r="E52">
-        <v>3.1323473248800402E-4</v>
-      </c>
-      <c r="F52">
-        <v>0.97440334678301499</v>
-      </c>
-      <c r="G52">
-        <v>4.2493771418777301E-4</v>
-      </c>
-      <c r="H52" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-5.1233652439308663E-4</v>
-      </c>
-      <c r="I52" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>-4.2775191738997353E-4</v>
-      </c>
-      <c r="J52" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>-8.573080687342971E-4</v>
-      </c>
-      <c r="U52">
-        <v>0.98380818511221102</v>
-      </c>
-      <c r="V52">
-        <v>4.4164074574145999E-4</v>
-      </c>
-      <c r="W52">
-        <v>0.98544111445299798</v>
-      </c>
-      <c r="X52">
-        <v>4.5283331234080598E-4</v>
-      </c>
-      <c r="Y52">
-        <v>0.97372575153660501</v>
-      </c>
-      <c r="Z52">
-        <v>6.1186513557147295E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-1</v>
-      </c>
-      <c r="I53" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>-1</v>
-      </c>
-      <c r="J53" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>-1</v>
-      </c>
-      <c r="U53">
-        <v>0.98436253664413598</v>
-      </c>
-      <c r="V53">
-        <v>3.0504496385145099E-4</v>
-      </c>
-      <c r="W53">
-        <v>0.98601784607074305</v>
-      </c>
-      <c r="X53">
-        <v>3.1323473248800402E-4</v>
-      </c>
-      <c r="Y53">
-        <v>0.97440334678301499</v>
-      </c>
-      <c r="Z53">
-        <v>4.2493771418777301E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1">
-        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
-        <v>-1</v>
-      </c>
-      <c r="I54" s="1">
-        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
-        <v>-1</v>
-      </c>
-      <c r="J54" s="1">
-        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="16">
-        <v>100000</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="21">
-        <f>0.3302/SQRT(B57)</f>
-        <v>1.0441840833875988E-3</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>21</v>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="29">
+        <v>1495.1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-4.0000000000000002E-4</v>
       </c>
     </row>
   </sheetData>
@@ -52280,12 +52020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D96BD0-EE6C-43ED-9DAD-C344E58F3F8A}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06397ADA-DF11-4F30-81C4-082B1BC10C52}">
   <dimension ref="A3:Z63"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="E36" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52294,6 +52034,9 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -52311,16 +52054,1244 @@
         <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="9">
+        <v>545.9</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.992067809389786</v>
+      </c>
+      <c r="C10" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>5.7794351848552417E-3</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.99084510740500598</v>
+      </c>
+      <c r="C11" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>4.539833919687819E-3</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.99005434718251795</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>3.738144395632137E-3</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.98948856940792695</v>
+      </c>
+      <c r="C13" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>3.1645468600782767E-3</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.98907510033277801</v>
+      </c>
+      <c r="C14" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>2.7453631218965491E-3</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.98828365971203003</v>
+      </c>
+      <c r="C15" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>1.9429837956206342E-3</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.98730202804689005</v>
+      </c>
+      <c r="C16" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>9.4778474533452339E-4</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.98669836519595999</v>
+      </c>
+      <c r="C17" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>3.3577851400257153E-4</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.98655996835826998</v>
+      </c>
+      <c r="C18" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>1.9546885782206758E-4</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.98651771537643695</v>
+      </c>
+      <c r="C19" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>1.5263188659830895E-4</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.98643979758555</v>
+      </c>
+      <c r="C20" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>7.3637173769736108E-5</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>500</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.98639386157277897</v>
+      </c>
+      <c r="C21" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>2.7066267484610051E-5</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.98637875103428996</v>
+      </c>
+      <c r="C22" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>1.1746882334850994E-5</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.98637166627669004</v>
+      </c>
+      <c r="C23" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>4.564204467705224E-6</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.98636785476137101</v>
+      </c>
+      <c r="C24" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>7.0000920948665168E-7</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.98636716429527205</v>
+      </c>
+      <c r="C25" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10000</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>20000</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>50000</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>70000</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3">
+        <f>Table14[[#This Row],[eff_D]]/B$31-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.98636716429527205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>0.98486712004140697</v>
+      </c>
+      <c r="Q39" t="e">
+        <f t="shared" ref="Q39:Q42" si="0">O39/P39-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>0.99999963955336302</v>
+      </c>
+      <c r="C40" s="24">
+        <v>3.4190873202320503E-7</v>
+      </c>
+      <c r="D40">
+        <v>0.99999999999610301</v>
+      </c>
+      <c r="E40" s="24">
+        <v>3.69684678803042E-12</v>
+      </c>
+      <c r="F40">
+        <v>0.99999891866398805</v>
+      </c>
+      <c r="G40" s="24">
+        <v>1.0257224992357199E-6</v>
+      </c>
+      <c r="H40" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>1.5365036768939744E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>1.3746609214007277E-2</v>
+      </c>
+      <c r="J40" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>2.5388115528287125E-2</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="N40" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>0.98643979758555</v>
+      </c>
+      <c r="P40">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.6758096702125282E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>0.99999697958623301</v>
+      </c>
+      <c r="C41" s="24">
+        <v>2.9331542099950201E-6</v>
+      </c>
+      <c r="D41">
+        <v>0.99999999945644902</v>
+      </c>
+      <c r="E41" s="24">
+        <v>5.2978067662144297E-10</v>
+      </c>
+      <c r="F41">
+        <v>0.99999093930226102</v>
+      </c>
+      <c r="G41" s="24">
+        <v>8.7989328418867094E-6</v>
+      </c>
+      <c r="H41" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>1.5362335930343418E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>1.374660866693489E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>2.5379933576755276E-2</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="N41" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41">
+        <v>0.975239427413084</v>
+      </c>
+      <c r="P41">
+        <v>0.97370000000000001</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5810079214173545E-3</v>
+      </c>
+      <c r="U41">
+        <v>0.99999963955336302</v>
+      </c>
+      <c r="V41" s="24">
+        <v>3.4190873202320503E-7</v>
+      </c>
+      <c r="W41">
+        <v>0.99999999999610301</v>
+      </c>
+      <c r="X41" s="24">
+        <v>3.69684678803042E-12</v>
+      </c>
+      <c r="Y41">
+        <v>0.99999891866398805</v>
+      </c>
+      <c r="Z41" s="24">
+        <v>1.0257224992357199E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.99290300551591304</v>
+      </c>
+      <c r="C42">
+        <v>4.2034392513131801E-3</v>
+      </c>
+      <c r="D42">
+        <v>0.99748259631004199</v>
+      </c>
+      <c r="E42">
+        <v>1.7773828400849E-3</v>
+      </c>
+      <c r="F42">
+        <v>0.98136843700424203</v>
+      </c>
+      <c r="G42">
+        <v>1.0794515870854299E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>8.1593600913067998E-3</v>
+      </c>
+      <c r="I42" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>1.1194599763230118E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>6.2846203905186915E-3</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.98864566271567667</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.9865248226950355</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1498090791545188E-3</v>
+      </c>
+      <c r="U42">
+        <v>0.99999697958623301</v>
+      </c>
+      <c r="V42" s="24">
+        <v>2.9331542099950201E-6</v>
+      </c>
+      <c r="W42">
+        <v>0.99999999945644902</v>
+      </c>
+      <c r="X42" s="24">
+        <v>5.2978067662144297E-10</v>
+      </c>
+      <c r="Y42">
+        <v>0.99999093930226102</v>
+      </c>
+      <c r="Z42" s="24">
+        <v>8.7989328418867094E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>0.98456473832439495</v>
+      </c>
+      <c r="C43">
+        <v>1.0054546258506099E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.98506699712427703</v>
+      </c>
+      <c r="E43">
+        <v>1.06530351560527E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.97668217243520405</v>
+      </c>
+      <c r="G43">
+        <v>1.34945111445351E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-3.0702793387937799E-4</v>
+      </c>
+      <c r="I43" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>-1.3916718127483518E-3</v>
+      </c>
+      <c r="J43" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>1.4793751991211135E-3</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="U43">
+        <v>0.99290300551591304</v>
+      </c>
+      <c r="V43">
+        <v>4.2034392513131801E-3</v>
+      </c>
+      <c r="W43">
+        <v>0.99748259631004199</v>
+      </c>
+      <c r="X43">
+        <v>1.7773828400849E-3</v>
+      </c>
+      <c r="Y43">
+        <v>0.98136843700424203</v>
+      </c>
+      <c r="Z43">
+        <v>1.0794515870854299E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>200</v>
+      </c>
+      <c r="B44">
+        <v>0.98598139447607802</v>
+      </c>
+      <c r="C44">
+        <v>7.2245901699370301E-3</v>
+      </c>
+      <c r="D44">
+        <v>0.98839760620314199</v>
+      </c>
+      <c r="E44">
+        <v>7.1103870198594302E-3</v>
+      </c>
+      <c r="F44">
+        <v>0.97969857321498099</v>
+      </c>
+      <c r="G44">
+        <v>8.1032847481732097E-3</v>
+      </c>
+      <c r="H44" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>1.1313957101382055E-3</v>
+      </c>
+      <c r="I44" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>1.9847218475814721E-3</v>
+      </c>
+      <c r="J44" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>4.5723600549305576E-3</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="U44">
+        <v>0.98456473832439495</v>
+      </c>
+      <c r="V44">
+        <v>1.0054546258506099E-2</v>
+      </c>
+      <c r="W44">
+        <v>0.98506699712427703</v>
+      </c>
+      <c r="X44">
+        <v>1.06530351560527E-2</v>
+      </c>
+      <c r="Y44">
+        <v>0.97668217243520405</v>
+      </c>
+      <c r="Z44">
+        <v>1.34945111445351E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>500</v>
+      </c>
+      <c r="B45">
+        <v>0.979525122513901</v>
+      </c>
+      <c r="C45">
+        <v>5.3245769435702603E-3</v>
+      </c>
+      <c r="D45">
+        <v>0.98132287735910695</v>
+      </c>
+      <c r="E45">
+        <v>5.48089967423956E-3</v>
+      </c>
+      <c r="F45">
+        <v>0.96980609949525598</v>
+      </c>
+      <c r="G45">
+        <v>6.5990572075470197E-3</v>
+      </c>
+      <c r="H45" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-5.4240794710268547E-3</v>
+      </c>
+      <c r="I45" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>-5.1872605291953811E-3</v>
+      </c>
+      <c r="J45" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>-5.5712758991302014E-3</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="U45">
+        <v>0.98598139447607802</v>
+      </c>
+      <c r="V45">
+        <v>7.2245901699370301E-3</v>
+      </c>
+      <c r="W45">
+        <v>0.98839760620314199</v>
+      </c>
+      <c r="X45">
+        <v>7.1103870198594302E-3</v>
+      </c>
+      <c r="Y45">
+        <v>0.97969857321498099</v>
+      </c>
+      <c r="Z45">
+        <v>8.1032847481732097E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1000</v>
+      </c>
+      <c r="B46">
+        <v>0.98474102382963702</v>
+      </c>
+      <c r="C46">
+        <v>2.9256833557122501E-3</v>
+      </c>
+      <c r="D46">
+        <v>0.98679595314961299</v>
+      </c>
+      <c r="E46">
+        <v>2.9166588705717999E-3</v>
+      </c>
+      <c r="F46">
+        <v>0.974013784091593</v>
+      </c>
+      <c r="G46">
+        <v>4.2346845600233496E-3</v>
+      </c>
+      <c r="H46" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-1.2803373084957492E-4</v>
+      </c>
+      <c r="I46" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>3.6105149542287052E-4</v>
+      </c>
+      <c r="J46" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>-1.256761454714872E-3</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="U46">
+        <v>0.979525122513901</v>
+      </c>
+      <c r="V46">
+        <v>5.3245769435702603E-3</v>
+      </c>
+      <c r="W46">
+        <v>0.98132287735910695</v>
+      </c>
+      <c r="X46">
+        <v>5.48089967423956E-3</v>
+      </c>
+      <c r="Y46">
+        <v>0.96980609949525598</v>
+      </c>
+      <c r="Z46">
+        <v>6.5990572075470197E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2000</v>
+      </c>
+      <c r="B47">
+        <v>0.98714504046967499</v>
+      </c>
+      <c r="C47">
+        <v>1.9928185167878698E-3</v>
+      </c>
+      <c r="D47">
+        <v>0.98902317027286002</v>
+      </c>
+      <c r="E47">
+        <v>1.97780901778318E-3</v>
+      </c>
+      <c r="F47">
+        <v>0.97908538817194402</v>
+      </c>
+      <c r="G47">
+        <v>2.6766795347760901E-3</v>
+      </c>
+      <c r="H47" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>2.3129215930899338E-3</v>
+      </c>
+      <c r="I47" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>2.6188853021067438E-3</v>
+      </c>
+      <c r="J47" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>3.9436067192870627E-3</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="U47">
+        <v>0.98474102382963702</v>
+      </c>
+      <c r="V47">
+        <v>2.9256833557122501E-3</v>
+      </c>
+      <c r="W47">
+        <v>0.98679595314961299</v>
+      </c>
+      <c r="X47">
+        <v>2.9166588705717999E-3</v>
+      </c>
+      <c r="Y47">
+        <v>0.974013784091593</v>
+      </c>
+      <c r="Z47">
+        <v>4.2346845600233496E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5000</v>
+      </c>
+      <c r="B48">
+        <v>0.98239043682791904</v>
+      </c>
+      <c r="C48">
+        <v>1.4530326366836801E-3</v>
+      </c>
+      <c r="D48">
+        <v>0.984117291675491</v>
+      </c>
+      <c r="E48">
+        <v>1.4968264740995399E-3</v>
+      </c>
+      <c r="F48">
+        <v>0.97141258854318802</v>
+      </c>
+      <c r="G48">
+        <v>2.01750911763247E-3</v>
+      </c>
+      <c r="H48" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-2.5147384485572077E-3</v>
+      </c>
+      <c r="I48" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>-2.3544324912110337E-3</v>
+      </c>
+      <c r="J48" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>-3.9239993403948903E-3</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="U48">
+        <v>0.98714504046967499</v>
+      </c>
+      <c r="V48">
+        <v>1.9928185167878698E-3</v>
+      </c>
+      <c r="W48">
+        <v>0.98902317027286002</v>
+      </c>
+      <c r="X48">
+        <v>1.97780901778318E-3</v>
+      </c>
+      <c r="Y48">
+        <v>0.97908538817194402</v>
+      </c>
+      <c r="Z48">
+        <v>2.6766795347760901E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>10000</v>
+      </c>
+      <c r="B49">
+        <v>0.98245484223848301</v>
+      </c>
+      <c r="C49">
+        <v>1.04243510976491E-3</v>
+      </c>
+      <c r="D49">
+        <v>0.98412211240621805</v>
+      </c>
+      <c r="E49">
+        <v>1.0764908953973199E-3</v>
+      </c>
+      <c r="F49">
+        <v>0.97206528372471501</v>
+      </c>
+      <c r="G49">
+        <v>1.41119817055974E-3</v>
+      </c>
+      <c r="H49" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-2.4493434229203581E-3</v>
+      </c>
+      <c r="I49" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>-2.3495454917824565E-3</v>
+      </c>
+      <c r="J49" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>-3.2547327344923938E-3</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="U49">
+        <v>0.98239043682791904</v>
+      </c>
+      <c r="V49">
+        <v>1.4530326366836801E-3</v>
+      </c>
+      <c r="W49">
+        <v>0.984117291675491</v>
+      </c>
+      <c r="X49">
+        <v>1.4968264740995399E-3</v>
+      </c>
+      <c r="Y49">
+        <v>0.97141258854318802</v>
+      </c>
+      <c r="Z49">
+        <v>2.01750911763247E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>20000</v>
+      </c>
+      <c r="B50">
+        <v>0.98302092978236799</v>
+      </c>
+      <c r="C50">
+        <v>7.20442087544264E-4</v>
+      </c>
+      <c r="D50">
+        <v>0.98458605157259405</v>
+      </c>
+      <c r="E50">
+        <v>7.4089560162783901E-4</v>
+      </c>
+      <c r="F50">
+        <v>0.97277330084414604</v>
+      </c>
+      <c r="G50">
+        <v>9.9029567282665092E-4</v>
+      </c>
+      <c r="H50" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-1.8745577159295923E-3</v>
+      </c>
+      <c r="I50" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>-1.8792287349853609E-3</v>
+      </c>
+      <c r="J50" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>-2.5287396095947656E-3</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="U50">
+        <v>0.98245484223848301</v>
+      </c>
+      <c r="V50">
+        <v>1.04243510976491E-3</v>
+      </c>
+      <c r="W50">
+        <v>0.98412211240621805</v>
+      </c>
+      <c r="X50">
+        <v>1.0764908953973199E-3</v>
+      </c>
+      <c r="Y50">
+        <v>0.97206528372471501</v>
+      </c>
+      <c r="Z50">
+        <v>1.41119817055974E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50000</v>
+      </c>
+      <c r="B51">
+        <v>0.98380818511221102</v>
+      </c>
+      <c r="C51">
+        <v>4.4164074574145999E-4</v>
+      </c>
+      <c r="D51">
+        <v>0.98544111445299798</v>
+      </c>
+      <c r="E51">
+        <v>4.5283331234080598E-4</v>
+      </c>
+      <c r="F51">
+        <v>0.97372575153660501</v>
+      </c>
+      <c r="G51">
+        <v>6.1186513557147295E-4</v>
+      </c>
+      <c r="H51" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-1.0752058908732876E-3</v>
+      </c>
+      <c r="I51" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>-1.0124116393077642E-3</v>
+      </c>
+      <c r="J51" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>-1.5521069328525705E-3</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="U51">
+        <v>0.98302092978236799</v>
+      </c>
+      <c r="V51">
+        <v>7.20442087544264E-4</v>
+      </c>
+      <c r="W51">
+        <v>0.98458605157259405</v>
+      </c>
+      <c r="X51">
+        <v>7.4089560162783901E-4</v>
+      </c>
+      <c r="Y51">
+        <v>0.97277330084414604</v>
+      </c>
+      <c r="Z51">
+        <v>9.9029567282665092E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>100000</v>
+      </c>
+      <c r="B52">
+        <v>0.98436253664413598</v>
+      </c>
+      <c r="C52">
+        <v>3.0504496385145099E-4</v>
+      </c>
+      <c r="D52">
+        <v>0.98601784607074305</v>
+      </c>
+      <c r="E52">
+        <v>3.1323473248800402E-4</v>
+      </c>
+      <c r="F52">
+        <v>0.97440334678301499</v>
+      </c>
+      <c r="G52">
+        <v>4.2493771418777301E-4</v>
+      </c>
+      <c r="H52" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-5.1233652439308663E-4</v>
+      </c>
+      <c r="I52" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>-4.2775191738997353E-4</v>
+      </c>
+      <c r="J52" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>-8.573080687342971E-4</v>
+      </c>
+      <c r="U52">
+        <v>0.98380818511221102</v>
+      </c>
+      <c r="V52">
+        <v>4.4164074574145999E-4</v>
+      </c>
+      <c r="W52">
+        <v>0.98544111445299798</v>
+      </c>
+      <c r="X52">
+        <v>4.5283331234080598E-4</v>
+      </c>
+      <c r="Y52">
+        <v>0.97372575153660501</v>
+      </c>
+      <c r="Z52">
+        <v>6.1186513557147295E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-1</v>
+      </c>
+      <c r="I53" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J53" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>-1</v>
+      </c>
+      <c r="U53">
+        <v>0.98436253664413598</v>
+      </c>
+      <c r="V53">
+        <v>3.0504496385145099E-4</v>
+      </c>
+      <c r="W53">
+        <v>0.98601784607074305</v>
+      </c>
+      <c r="X53">
+        <v>3.1323473248800402E-4</v>
+      </c>
+      <c r="Y53">
+        <v>0.97440334678301499</v>
+      </c>
+      <c r="Z53">
+        <v>4.2493771418777301E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1">
+        <f>Table25[[#This Row],[eff_S]]/O$39-1</f>
+        <v>-1</v>
+      </c>
+      <c r="I54" s="1">
+        <f>Table25[[#This Row],[eff_D]]/O$40-1</f>
+        <v>-1</v>
+      </c>
+      <c r="J54" s="1">
+        <f>Table25[[#This Row],[eff_T]]/O$41-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="16">
+        <v>100000</v>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="21">
+        <f>0.3302/SQRT(B57)</f>
+        <v>1.0441840833875988E-3</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D96BD0-EE6C-43ED-9DAD-C344E58F3F8A}">
+  <dimension ref="A3:Z63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40:Q42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="I8" s="9">
         <v>1495.1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -52588,13 +53559,25 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>18</v>
+      <c r="N38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -52634,6 +53617,10 @@
       <c r="O39">
         <v>0.99509644576412903</v>
       </c>
+      <c r="Q39" t="e">
+        <f t="shared" ref="Q39:Q42" si="0">O39/P39-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -52676,6 +53663,13 @@
       <c r="O40">
         <v>0.99560005065828605</v>
       </c>
+      <c r="P40">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.6046376895551004E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -52718,6 +53712,13 @@
       <c r="O41">
         <v>0.99284607706636296</v>
       </c>
+      <c r="P41">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.9663817369321999E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -52754,6 +53755,21 @@
         <v>-3.0999097136472642E-2</v>
       </c>
       <c r="K42" s="8"/>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.99723385551245991</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.99759567220997802</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.6268872008693442E-4</v>
+      </c>
       <c r="U42">
         <v>0.99999999981968501</v>
       </c>
@@ -53390,7 +54406,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -53408,7 +54424,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="21">
         <f>0.3302/SQRT(B57)</f>
@@ -53427,16 +54443,17 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -53445,8 +54462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Z63"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53455,6 +54472,10 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -53472,16 +54493,16 @@
         <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="I8" s="9">
         <v>18.591000000000001</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -53775,13 +54796,25 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="O38" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -53821,6 +54854,7 @@
       <c r="O39">
         <v>0.57608128780638401</v>
       </c>
+      <c r="Q39" s="23"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -53863,6 +54897,13 @@
       <c r="O40">
         <v>0.59435599606867795</v>
       </c>
+      <c r="P40">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="Q40" s="1">
+        <f>O40/P40-1</f>
+        <v>-3.4272366387023689E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -53905,6 +54946,13 @@
       <c r="O41">
         <v>0.325924985876614</v>
       </c>
+      <c r="P41">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="Q41" s="1">
+        <f>O41/P41-1</f>
+        <v>-2.3722501481052705E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -53941,6 +54989,21 @@
         <v>-9.6706649968039793E-2</v>
       </c>
       <c r="K42" s="8"/>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.54836661534908338</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.54778672032193154</v>
+      </c>
+      <c r="Q42" s="1">
+        <f>O42/P42-1</f>
+        <v>1.0586146133864105E-3</v>
+      </c>
       <c r="U42">
         <v>0.65610584333627997</v>
       </c>
@@ -54577,7 +55640,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -54595,7 +55658,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="21">
         <f>0.303/POWER(B57,0.483)</f>
@@ -54614,16 +55677,17 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -54632,8 +55696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B67A3B-906A-403E-B257-B7D51CDFD7F1}">
   <dimension ref="A3:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="C51" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54642,6 +55706,9 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -54659,16 +55726,16 @@
         <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9">
         <v>20.8</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -54942,13 +56009,25 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>18</v>
+      <c r="N38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
@@ -54988,6 +56067,10 @@
       <c r="O39">
         <v>0.51917056338767797</v>
       </c>
+      <c r="Q39" s="1" t="e">
+        <f t="shared" ref="Q39:Q42" si="0">O39/P39-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -55030,6 +56113,13 @@
       <c r="O40">
         <v>0.52634824329644103</v>
       </c>
+      <c r="P40">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4235983570036748E-3</v>
+      </c>
       <c r="T40">
         <v>0.47416252740806702</v>
       </c>
@@ -55090,6 +56180,13 @@
       <c r="O41">
         <v>0.28698545029940897</v>
       </c>
+      <c r="P41">
+        <v>0.28470000000000001</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0275739354020992E-3</v>
+      </c>
       <c r="T41">
         <v>0.64041620319516601</v>
       </c>
@@ -55144,6 +56241,21 @@
         <v>-3.3661588117046892E-2</v>
       </c>
       <c r="K42" s="8"/>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.54523873491447727</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5945875344195493E-3</v>
+      </c>
       <c r="T42">
         <v>0.54304652861735703</v>
       </c>
@@ -55744,7 +56856,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -55762,7 +56874,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="21">
         <f>0.309/SQRT(B57)</f>
@@ -55781,16 +56893,17 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -55800,7 +56913,7 @@
   <dimension ref="A3:Z63"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="N42" sqref="N42:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55809,6 +56922,9 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -55826,16 +56942,16 @@
         <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9">
         <v>156.476</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -56123,13 +57239,25 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>18</v>
+      <c r="N38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -56169,6 +57297,10 @@
       <c r="O39">
         <v>0.94789390860590705</v>
       </c>
+      <c r="Q39" s="1" t="e">
+        <f t="shared" ref="Q39:Q42" si="0">O39/P39-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -56211,6 +57343,13 @@
       <c r="O40">
         <v>0.95409445814774396</v>
       </c>
+      <c r="P40">
+        <v>0.95730000000000004</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.3485238193420308E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -56253,6 +57392,13 @@
       <c r="O41">
         <v>0.91212266494507399</v>
       </c>
+      <c r="P41">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2535625122128708E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -56289,6 +57435,21 @@
         <v>-9.2564440081253974E-2</v>
       </c>
       <c r="K42" s="8"/>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.95600876533320089</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.95591768515616837</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5280355669524752E-5</v>
+      </c>
       <c r="U42">
         <v>0.89893550874800499</v>
       </c>
@@ -56925,7 +58086,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -56943,7 +58104,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="21">
         <f>0.2547/SQRT(B57)</f>
@@ -56962,16 +58123,17 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -56980,8 +58142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D9C53E-1E8E-40D2-A436-13BD96A716D4}">
   <dimension ref="A3:Z63"/>
   <sheetViews>
-    <sheetView topLeftCell="G51" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView topLeftCell="G30" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56990,6 +58152,9 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -57007,16 +58172,16 @@
         <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9">
         <v>167.33</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -57294,13 +58459,25 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>18</v>
+      <c r="N38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -57340,6 +58517,7 @@
       <c r="O39">
         <v>0.93292110234862302</v>
       </c>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -57382,6 +58560,13 @@
       <c r="O40">
         <v>0.93954747102306901</v>
       </c>
+      <c r="P40">
+        <v>0.9425</v>
+      </c>
+      <c r="Q40" s="1">
+        <f>Table26[[#This Row],[TDCR17 restults]]/Table26[[#This Row],[TDCRPy]]-1</f>
+        <v>3.1425011167514061E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -57424,6 +58609,13 @@
       <c r="O41">
         <v>0.88973299908493297</v>
       </c>
+      <c r="P41">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="Q41" s="1">
+        <f>Table26[[#This Row],[TDCR17 restults]]/Table26[[#This Row],[TDCRPy]]-1</f>
+        <v>5.020608339424637E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -57460,6 +58652,21 @@
         <v>6.5825206642995848E-2</v>
       </c>
       <c r="K42" s="8"/>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.94698035652856016</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.94875331564986731</v>
+      </c>
+      <c r="Q42" s="1">
+        <f>O42/P42-1</f>
+        <v>-1.8687250859226179E-3</v>
+      </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -58098,7 +59305,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -58116,7 +59323,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="21">
         <f>0.3302/SQRT(B57)</f>
@@ -58135,16 +59342,17 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -58153,8 +59361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573F3452-1925-41EF-86BC-A337BB1441D4}">
   <dimension ref="A3:Z63"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58163,6 +59371,9 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -58180,16 +59391,16 @@
         <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9">
         <v>224.1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -58463,13 +59674,25 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>18</v>
+      <c r="N38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -58509,6 +59732,10 @@
       <c r="O39">
         <v>0.94214459586382504</v>
       </c>
+      <c r="Q39" t="e">
+        <f t="shared" ref="Q39:Q42" si="0">O39/P39-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -58551,6 +59778,13 @@
       <c r="O40">
         <v>0.94773393128053895</v>
       </c>
+      <c r="P40">
+        <v>0.95350000000000001</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.0472666171589307E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -58593,6 +59827,13 @@
       <c r="O41">
         <v>0.90605248498396096</v>
       </c>
+      <c r="P41">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.6953118337408375E-3</v>
+      </c>
       <c r="U41">
         <v>0.86449487866661101</v>
       </c>
@@ -58647,6 +59888,21 @@
         <v>1.2546695605200275E-2</v>
       </c>
       <c r="K42" s="8"/>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.95601988604516908</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.95857367593078135</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.664156078699409E-3</v>
+      </c>
       <c r="U42">
         <v>0.98150600730826798</v>
       </c>
@@ -59265,7 +60521,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -59283,7 +60539,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="21">
         <f>0.3302/SQRT(B57)</f>
@@ -59302,16 +60558,17 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -59321,7 +60578,7 @@
   <dimension ref="A3:Z63"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="Q40" sqref="Q40:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59330,6 +60587,9 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -59347,16 +60607,16 @@
         <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9">
         <v>66.98</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -59644,13 +60904,25 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>18</v>
+      <c r="N38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -59690,6 +60962,10 @@
       <c r="O39">
         <v>0.81693994448948104</v>
       </c>
+      <c r="Q39" t="e">
+        <f t="shared" ref="Q39:Q42" si="0">O39/P39-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -59731,6 +61007,13 @@
       <c r="O40">
         <v>0.83223816833364805</v>
       </c>
+      <c r="P40">
+        <v>0.83160000000000001</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6739818861004672E-4</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -59772,6 +61055,13 @@
       <c r="O41">
         <v>0.69946766676399397</v>
       </c>
+      <c r="P41">
+        <v>0.69889999999999997</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1222887965948232E-4</v>
+      </c>
       <c r="U41">
         <v>0.76047643603523896</v>
       </c>
@@ -59824,6 +61114,21 @@
       <c r="J42" s="1">
         <f>Table27[[#This Row],[eff_T]]/O$41-1</f>
         <v>3.9441153928799766E-2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.84046573850909256</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.84042809042809041</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>4.479631443898846E-5</v>
       </c>
       <c r="U42">
         <v>0.73242625613807699</v>
@@ -60436,7 +61741,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -60454,7 +61759,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="21">
         <f>0.315/SQRT(B57)</f>
@@ -60473,16 +61778,17 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -60491,8 +61797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B3A88E-1761-4FE7-A692-DA0D2EEE4A41}">
   <dimension ref="A3:Z63"/>
   <sheetViews>
-    <sheetView topLeftCell="E41" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:G52"/>
+    <sheetView topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60501,6 +61807,9 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -60518,16 +61827,16 @@
         <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9">
         <v>258</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -60803,13 +62112,25 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>18</v>
+      <c r="N38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -60849,6 +62170,7 @@
       <c r="O39">
         <v>0.95786156539368095</v>
       </c>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -60891,6 +62213,13 @@
       <c r="O40">
         <v>0.96207318259305497</v>
       </c>
+      <c r="P40">
+        <v>0.9667</v>
+      </c>
+      <c r="Q40" s="1">
+        <f>Table30[[#This Row],[TDCR17 restults]]/Table30[[#This Row],[TDCRPy]]-1</f>
+        <v>4.809215650803722E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -60933,6 +62262,13 @@
       <c r="O41">
         <v>0.93121224138208003</v>
       </c>
+      <c r="P41">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="Q41" s="1">
+        <f>Table30[[#This Row],[TDCR17 restults]]/Table30[[#This Row],[TDCRPy]]-1</f>
+        <v>4.8192650595522135E-3</v>
+      </c>
       <c r="U41">
         <v>0.90153152992254004</v>
       </c>
@@ -60987,6 +62323,21 @@
         <v>-7.7280415263863311E-2</v>
       </c>
       <c r="K42" s="8"/>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.96792245977816771</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.96793214027102514</v>
+      </c>
+      <c r="Q42" s="1">
+        <f>O42/P42-1</f>
+        <v>-1.0001210265397908E-5</v>
+      </c>
       <c r="U42">
         <v>0.95372564380579605</v>
       </c>
@@ -61605,7 +62956,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -61623,7 +62974,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="21">
         <f>0.3302/SQRT(B57)</f>
@@ -61642,16 +62993,17 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -61660,8 +63012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E54E055-615F-4DEB-8BA7-BEDD01D55059}">
   <dimension ref="A3:Z63"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61670,6 +63022,9 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
@@ -61687,16 +63042,16 @@
         <v>4</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9">
         <v>293.8</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -61974,13 +63329,25 @@
       <c r="A36" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="N36" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="N38" t="s">
-        <v>18</v>
+      <c r="N38" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="32" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -62020,6 +63387,10 @@
       <c r="O39">
         <v>0.97137778905519001</v>
       </c>
+      <c r="Q39" t="e">
+        <f t="shared" ref="Q39:Q42" si="0">O39/P39-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40">
@@ -62062,6 +63433,13 @@
       <c r="O40">
         <v>0.97443183170110004</v>
       </c>
+      <c r="P40">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0895019550597471E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41">
@@ -62104,6 +63482,13 @@
       <c r="O41">
         <v>0.95280152175675603</v>
       </c>
+      <c r="P41">
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7640762434024726E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
@@ -62140,6 +63525,21 @@
         <v>1.9571605095978217E-3</v>
       </c>
       <c r="K42" s="8"/>
+      <c r="N42" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42">
+        <f>O41/O40</f>
+        <v>0.97780213121057102</v>
+      </c>
+      <c r="P42">
+        <f>P41/P40</f>
+        <v>0.9732620320855615</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6648271229492444E-3</v>
+      </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -62778,7 +64178,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -62796,7 +64196,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="21">
         <f>0.3302/SQRT(B57)</f>
@@ -62815,16 +64215,17 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>